--- a/설정.xlsx
+++ b/설정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DmuDomitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281A72FF-F771-4BFA-A6F8-06BE049A3BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B92FF-6CDB-40B7-B802-16CFCEAACD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{05F04895-7036-41FE-8EBE-498A70469EAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>항목</t>
   </si>
@@ -148,6 +148,36 @@
   </si>
   <si>
     <t>IJr37xVwsdbjQHbZjClE9eoFgJoQgFR3G8Sp4p/TA6Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수3</t>
+  </si>
+  <si>
+    <t>계수4</t>
+  </si>
+  <si>
+    <t>비용구간1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용구간2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용구간3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용구간4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +214,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -242,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +290,9 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -589,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8490F121-B431-4534-8803-E3112BD02F92}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -702,90 +742,134 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>1.2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
+      <c r="A11" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="1">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
+      <c r="A12" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>1.8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
+      <c r="A13" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
-        <v>0.4</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/설정.xlsx
+++ b/설정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DmuDomitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B92FF-6CDB-40B7-B802-16CFCEAACD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C7495-F4A8-4431-A4BD-75D7AAF2CE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{05F04895-7036-41FE-8EBE-498A70469EAD}"/>
   </bookViews>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IJr37xVwsdbjQHbZjClE9eoFgJoQgFR3G8Sp4p/TA6Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>계수1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -178,6 +174,10 @@
   </si>
   <si>
     <t>비용구간4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ne3U+sshlQ+Rfy998s+eoB/EwU2XkcOWQqWW8mFnuDk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +632,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -669,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -743,46 +743,46 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1">
         <v>1.2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1">
         <v>1.5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1">
         <v>1.8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">

--- a/설정.xlsx
+++ b/설정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DmuDomitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C7495-F4A8-4431-A4BD-75D7AAF2CE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECF1B1E-042D-414D-8DDC-90E2E70CC091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{05F04895-7036-41FE-8EBE-498A70469EAD}"/>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="11170" xr2:uid="{05F04895-7036-41FE-8EBE-498A70469EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
